--- a/Summary of Tables.xlsx
+++ b/Summary of Tables.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Winter-2023\COMP-3150\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam2b\OneDrive\Documents\School\8-Winter 2023\Comp3150\Project\Utility-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D83DF0E-AFF7-41FF-B8AB-E1C04FB60645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8195D2-8ECC-43BB-B7CB-CE0D259307B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A553CE04-6FE0-451A-B7D5-2EFD629EE5BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A553CE04-6FE0-451A-B7D5-2EFD629EE5BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Keys" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>UTILITY_PROVIDER</t>
   </si>
@@ -204,6 +205,150 @@
   </si>
   <si>
     <t>assoc_account_num</t>
+  </si>
+  <si>
+    <t>Last updated Mar 12 @9:46pm</t>
+  </si>
+  <si>
+    <t>LINE_ITEM</t>
+  </si>
+  <si>
+    <t>var name</t>
+  </si>
+  <si>
+    <t>key type</t>
+  </si>
+  <si>
+    <t>account_number</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>line_item</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>utility_id</t>
+  </si>
+  <si>
+    <t>business_number</t>
+  </si>
+  <si>
+    <t>FK-CUSTOMER</t>
+  </si>
+  <si>
+    <t>line_item_description</t>
+  </si>
+  <si>
+    <t>mailing_preferences</t>
+  </si>
+  <si>
+    <t>utility_description</t>
+  </si>
+  <si>
+    <t>late_interest_rate</t>
+  </si>
+  <si>
+    <t>FK-UTILITY_PROVIDER</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>FK-UTILITY</t>
+  </si>
+  <si>
+    <t>street_number</t>
+  </si>
+  <si>
+    <t>street_name</t>
+  </si>
+  <si>
+    <t>PROVIDED_UTILITIES</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>meter_number</t>
+  </si>
+  <si>
+    <t>invoice_number</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ADDRESS</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>FK-ACCOUNT</t>
+  </si>
+  <si>
+    <t>PK, FK-UTILITY_PORVIDER</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>PK, FK-CUSTOMER</t>
+  </si>
+  <si>
+    <t>PK, FK-UTILITY</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>due_Date</t>
+  </si>
+  <si>
+    <t>address_description</t>
+  </si>
+  <si>
+    <t>utility_name</t>
+  </si>
+  <si>
+    <t>PROVIDER_SERVICE_REGION</t>
+  </si>
+  <si>
+    <t>ACCOUNT_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>service_region_name</t>
+  </si>
+  <si>
+    <t>PK, FK-UTILITY_PROVIDER</t>
+  </si>
+  <si>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t>FK - ACCOUNT</t>
+  </si>
+  <si>
+    <t>INVOICE_ITEM</t>
+  </si>
+  <si>
+    <t>FK - INVOICE</t>
+  </si>
+  <si>
+    <t>trasaction_description</t>
+  </si>
+  <si>
+    <t>PK, FK-INVOICE</t>
+  </si>
+  <si>
+    <t>PK, FK-LINE_ITEEM</t>
+  </si>
+  <si>
+    <t>issuer</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
@@ -241,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -329,24 +474,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,599 +858,1057 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89257295-606D-46D2-8EA2-09E9F2ECDB71}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="D8" s="1"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" t="s">
         <v>54</v>
       </c>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F48E949-4E1B-430C-ABE0-19CAE1FAC896}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="J2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="M2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="G5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="J5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="M5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="J6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="M6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="J7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="M7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="M8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="D9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="M9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="D10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="M10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="J11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="D13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="J16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="J17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="D18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="J19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="D23" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="D24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="D25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Summary of Tables.xlsx
+++ b/Summary of Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam2b\OneDrive\Documents\School\8-Winter 2023\Comp3150\Project\Utility-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8195D2-8ECC-43BB-B7CB-CE0D259307B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF89C74-6477-4CA6-BE3E-6F555C94C3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A553CE04-6FE0-451A-B7D5-2EFD629EE5BC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
   <si>
     <t>UTILITY_PROVIDER</t>
   </si>
@@ -207,9 +207,6 @@
     <t>assoc_account_num</t>
   </si>
   <si>
-    <t>Last updated Mar 12 @9:46pm</t>
-  </si>
-  <si>
     <t>LINE_ITEM</t>
   </si>
   <si>
@@ -267,15 +264,9 @@
     <t>street_name</t>
   </si>
   <si>
-    <t>PROVIDED_UTILITIES</t>
-  </si>
-  <si>
     <t>postal_code</t>
   </si>
   <si>
-    <t>meter_number</t>
-  </si>
-  <si>
     <t>invoice_number</t>
   </si>
   <si>
@@ -288,18 +279,12 @@
     <t>FK-ACCOUNT</t>
   </si>
   <si>
-    <t>PK, FK-UTILITY_PORVIDER</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
     <t>PK, FK-CUSTOMER</t>
   </si>
   <si>
-    <t>PK, FK-UTILITY</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -309,21 +294,12 @@
     <t>address_description</t>
   </si>
   <si>
-    <t>utility_name</t>
-  </si>
-  <si>
     <t>PROVIDER_SERVICE_REGION</t>
   </si>
   <si>
     <t>ACCOUNT_TRANSACTIONS</t>
   </si>
   <si>
-    <t>service_region_name</t>
-  </si>
-  <si>
-    <t>PK, FK-UTILITY_PROVIDER</t>
-  </si>
-  <si>
     <t>transaction_id</t>
   </si>
   <si>
@@ -339,9 +315,6 @@
     <t>trasaction_description</t>
   </si>
   <si>
-    <t>PK, FK-INVOICE</t>
-  </si>
-  <si>
     <t>PK, FK-LINE_ITEEM</t>
   </si>
   <si>
@@ -349,6 +322,69 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>card_num</t>
+  </si>
+  <si>
+    <t>card_expiry</t>
+  </si>
+  <si>
+    <t>FK-PROVIDER_SERVICE_REGION</t>
+  </si>
+  <si>
+    <t>region_ID</t>
+  </si>
+  <si>
+    <t>tax_rate</t>
+  </si>
+  <si>
+    <t>KF-REGION</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>service_ID</t>
+  </si>
+  <si>
+    <t>FK-REGION</t>
+  </si>
+  <si>
+    <t>product_serviced</t>
+  </si>
+  <si>
+    <t>payment_method</t>
+  </si>
+  <si>
+    <t>bank_account</t>
+  </si>
+  <si>
+    <t>card_CVV</t>
+  </si>
+  <si>
+    <t>FK-INVOICE</t>
+  </si>
+  <si>
+    <t>tranaction_amount</t>
+  </si>
+  <si>
+    <t>transaction_description</t>
+  </si>
+  <si>
+    <t>transit_num</t>
+  </si>
+  <si>
+    <t>METER</t>
+  </si>
+  <si>
+    <t>meter_ID</t>
+  </si>
+  <si>
+    <t>FK-PROVIDER_SERVICE_REGION)</t>
   </si>
 </sst>
 </file>
@@ -519,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -531,17 +567,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1406,509 +1444,582 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F48E949-4E1B-430C-ABE0-19CAE1FAC896}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.44140625" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.44140625" customWidth="1"/>
     <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
       <c r="C1" s="10"/>
       <c r="F1" s="10"/>
       <c r="I1" s="10"/>
       <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="J2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="G2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="J2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="11"/>
-      <c r="M2" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="J5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="D8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="J9" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="J13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="J14" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="D16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="G16" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="J16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="D17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="J18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="D19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="J19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="G20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="J22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="14" t="s">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="D24" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="E24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="G5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="J5" s="15" t="s">
+      <c r="H24" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="M5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="G6" s="15" t="s">
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="J6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="M6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D27" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="J27" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="J7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="M7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="15"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="M8" s="15" t="s">
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="J28" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="D9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="M9" s="15" t="s">
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J29" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="D10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="M10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="J11" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="D12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J31" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="D13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="G13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="G14" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="G15" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="G16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="J16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="G17" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="J17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="D18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="G18" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="J18" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="J19" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="D23" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="D24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="D25" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="15"/>
+      <c r="K31" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="G11:H11"/>
+  <mergeCells count="13">
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>